--- a/menu.xlsx
+++ b/menu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Піци" sheetId="1" state="visible" r:id="rId2"/>
@@ -309,7 +309,7 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -492,12 +492,12 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.06"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -651,8 +651,8 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
